--- a/src/main/resources/data2/Book1.xlsx
+++ b/src/main/resources/data2/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\FileComparision\src\main\resources\data2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789DD281-6A13-4865-9BC0-0A75EC54D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C09C4A8-A6DE-414F-B2AB-AAA5AF5F0C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E827408-CC67-438B-BD18-D5C95B027814}"/>
+    <workbookView xWindow="5436" yWindow="2952" windowWidth="17280" windowHeight="8880" xr2:uid="{6E827408-CC67-438B-BD18-D5C95B027814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>TradeID</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Risk</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Curve</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/data2/Book1.xlsx
+++ b/src/main/resources/data2/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\FileComparision\src\main\resources\data2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789DD281-6A13-4865-9BC0-0A75EC54D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59721-37AB-4FA2-AEAA-FD7F4E59E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E827408-CC67-438B-BD18-D5C95B027814}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>TradeID</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Curve</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Type</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Risk</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,13 +410,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/main/resources/data2/Book1.xlsx
+++ b/src/main/resources/data2/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC59721-37AB-4FA2-AEAA-FD7F4E59E7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E900A65-F602-4CFC-9B11-1E8B40DEEABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E827408-CC67-438B-BD18-D5C95B027814}"/>
+    <workbookView xWindow="3612" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{6E827408-CC67-438B-BD18-D5C95B027814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
         <v>538</v>
       </c>
       <c r="D3">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
